--- a/Legende.xlsx
+++ b/Legende.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jannisborn/Dropbox/GitHub/DigitalKeyboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7AC7231-1773-8148-A068-33920C5AE3CA}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58303A48-B422-8044-A7D9-2E2D157C880B}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="840" windowWidth="11460" windowHeight="18160" xr2:uid="{86D0B2A3-FBFA-DA4D-8411-44CBC62FA698}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="18860" xr2:uid="{86D0B2A3-FBFA-DA4D-8411-44CBC62FA698}"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="36">
   <si>
     <t>Thumb</t>
   </si>
@@ -133,9 +133,6 @@
   </si>
   <si>
     <t>&lt;ENTER&gt;</t>
-  </si>
-  <si>
-    <t>&lt;CAPSL&gt;</t>
   </si>
 </sst>
 </file>
@@ -539,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F833EB7-1076-E64F-B629-369B2F7A6CB3}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -550,9 +547,12 @@
     <col min="1" max="1" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="6.83203125" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" style="4"/>
+    <col min="10" max="10" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="6.83203125" customWidth="1"/>
+    <col min="15" max="15" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -571,8 +571,26 @@
       <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -581,8 +599,16 @@
       <c r="F2" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J2" s="1"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -591,8 +617,16 @@
       <c r="F3" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -601,8 +635,16 @@
       <c r="F4" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J4" s="2"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -611,8 +653,16 @@
       <c r="F5" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
@@ -621,18 +671,32 @@
       <c r="F6" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J6" s="2"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="1"/>
       <c r="D7" s="2"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7" s="3"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
@@ -641,8 +705,16 @@
       <c r="F8" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
@@ -651,8 +723,16 @@
       <c r="F9" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J9" s="1"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -661,8 +741,16 @@
       <c r="F10" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J10" s="1"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -671,8 +759,16 @@
       <c r="F11" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -681,8 +777,16 @@
       <c r="F12" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J12" s="2"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -691,8 +795,16 @@
       <c r="F13" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J13" s="2"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -701,8 +813,16 @@
       <c r="F14" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -711,8 +831,16 @@
       <c r="F15" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -721,8 +849,16 @@
       <c r="F16" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -731,8 +867,16 @@
       <c r="F17" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J17" s="1"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -741,8 +885,16 @@
       <c r="F18" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -751,8 +903,16 @@
       <c r="F19" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J19" s="2"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -761,8 +921,16 @@
       <c r="F20" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -771,8 +939,16 @@
       <c r="F21" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J21" s="1"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="1"/>
@@ -781,8 +957,16 @@
       <c r="F22" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="1"/>
@@ -791,8 +975,16 @@
       <c r="F23" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="1"/>
@@ -801,8 +993,16 @@
       <c r="F24" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J24" s="2"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="1"/>
@@ -811,8 +1011,16 @@
       <c r="F25" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
@@ -821,8 +1029,16 @@
       <c r="F26" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="2"/>
@@ -831,8 +1047,16 @@
       <c r="F27" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J27" s="1"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="2"/>
@@ -841,8 +1065,16 @@
       <c r="F28" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J28" s="1"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="2"/>
@@ -851,8 +1083,16 @@
       <c r="F29" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J29" s="1"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -861,8 +1101,16 @@
       <c r="F30" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J30" s="2"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -871,8 +1119,16 @@
       <c r="F31" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J31" s="2"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -881,16 +1137,31 @@
       <c r="F32" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="3"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="3"/>
     </row>
   </sheetData>
+  <sortState ref="J2:O36">
+    <sortCondition ref="O2:O36"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
